--- a/toeicOnline/toeic-web/target/toecic-web-1.0-SNAPSHOT/fileupload/excel/templateimportuser.xlsx
+++ b/toeicOnline/toeic-web/target/toecic-web-1.0-SNAPSHOT/fileupload/excel/templateimportuser.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996761A0-A90C-4222-91A3-075E4C6C5423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +165,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -442,22 +443,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,13 +472,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>123456</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -485,9 +484,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>123457</v>
@@ -499,7 +498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -513,7 +512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -527,7 +526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -541,7 +540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -555,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
